--- a/data/pca/factorExposure/factorExposure_2009-02-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-02-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01660033476791324</v>
+        <v>0.01512165914719172</v>
       </c>
       <c r="C2">
-        <v>-0.01062412029865963</v>
+        <v>0.01183077273194002</v>
       </c>
       <c r="D2">
-        <v>-0.01435765882467172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01403408403252549</v>
+      </c>
+      <c r="E2">
+        <v>0.0006542672623546498</v>
+      </c>
+      <c r="F2">
+        <v>-0.008395975939940152</v>
+      </c>
+      <c r="G2">
+        <v>0.0176859480084104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08127461006308205</v>
+        <v>0.08373006453932096</v>
       </c>
       <c r="C4">
-        <v>-0.08003888558805022</v>
+        <v>0.08657997692769703</v>
       </c>
       <c r="D4">
-        <v>0.06539244689209259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06576296312489063</v>
+      </c>
+      <c r="E4">
+        <v>-0.006761825039831446</v>
+      </c>
+      <c r="F4">
+        <v>-0.03974534691093143</v>
+      </c>
+      <c r="G4">
+        <v>0.03252277230026901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.003084283374464454</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002136119951793408</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.00116915689261238</v>
+      </c>
+      <c r="E5">
+        <v>0.002621855565664302</v>
+      </c>
+      <c r="F5">
+        <v>0.002990268912229187</v>
+      </c>
+      <c r="G5">
+        <v>-0.002689114709416358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1677427993182233</v>
+        <v>0.1699895344030926</v>
       </c>
       <c r="C6">
-        <v>0.01810345248691443</v>
+        <v>-0.009847468259526031</v>
       </c>
       <c r="D6">
-        <v>0.05781135655244752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06038843945067549</v>
+      </c>
+      <c r="E6">
+        <v>-0.02322081058122875</v>
+      </c>
+      <c r="F6">
+        <v>0.0546745847035371</v>
+      </c>
+      <c r="G6">
+        <v>-0.008418255007569223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05513691091921557</v>
+        <v>0.05938826921527948</v>
       </c>
       <c r="C7">
-        <v>-0.05856551031251647</v>
+        <v>0.0630678796197701</v>
       </c>
       <c r="D7">
-        <v>0.04471330044891461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05191037761940711</v>
+      </c>
+      <c r="E7">
+        <v>-0.0419093450693405</v>
+      </c>
+      <c r="F7">
+        <v>-0.06803201506264299</v>
+      </c>
+      <c r="G7">
+        <v>0.04371852250668946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05505170019968687</v>
+        <v>0.05167329471583303</v>
       </c>
       <c r="C8">
-        <v>-0.04475859881120663</v>
+        <v>0.04593199054023175</v>
       </c>
       <c r="D8">
-        <v>-0.02056202104663005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02225082755506392</v>
+      </c>
+      <c r="E8">
+        <v>0.02877496090609072</v>
+      </c>
+      <c r="F8">
+        <v>-0.04389486691527452</v>
+      </c>
+      <c r="G8">
+        <v>-0.0002714524741288837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06087147915311879</v>
+        <v>0.06452283957145614</v>
       </c>
       <c r="C9">
-        <v>-0.08703548042886432</v>
+        <v>0.09123545448522838</v>
       </c>
       <c r="D9">
-        <v>0.09053487978522956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08741505241929999</v>
+      </c>
+      <c r="E9">
+        <v>-0.0123513205151832</v>
+      </c>
+      <c r="F9">
+        <v>-0.06619366539730304</v>
+      </c>
+      <c r="G9">
+        <v>0.006952518079706668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1087391356286734</v>
+        <v>0.1006257549664072</v>
       </c>
       <c r="C10">
-        <v>0.1467695955194727</v>
+        <v>-0.1395509443539448</v>
       </c>
       <c r="D10">
-        <v>-0.10629204430482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09604701987201528</v>
+      </c>
+      <c r="E10">
+        <v>0.005654408764566714</v>
+      </c>
+      <c r="F10">
+        <v>-0.03687101251583361</v>
+      </c>
+      <c r="G10">
+        <v>-0.009408684652503262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07889113386203053</v>
+        <v>0.07695079452537412</v>
       </c>
       <c r="C11">
-        <v>-0.1287739047278468</v>
+        <v>0.1288315511904239</v>
       </c>
       <c r="D11">
-        <v>0.05843290795324634</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04918598815184988</v>
+      </c>
+      <c r="E11">
+        <v>0.0167966082358583</v>
+      </c>
+      <c r="F11">
+        <v>-0.07852393378727472</v>
+      </c>
+      <c r="G11">
+        <v>0.00918122870190648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08272157697011212</v>
+        <v>0.07889387387672051</v>
       </c>
       <c r="C12">
-        <v>-0.1476686294211606</v>
+        <v>0.1493581484307979</v>
       </c>
       <c r="D12">
-        <v>0.06128373471016057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05670658305209059</v>
+      </c>
+      <c r="E12">
+        <v>0.008830409442997907</v>
+      </c>
+      <c r="F12">
+        <v>-0.08438671389844332</v>
+      </c>
+      <c r="G12">
+        <v>0.01264869210295411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04195234567058383</v>
+        <v>0.04247163695331644</v>
       </c>
       <c r="C13">
-        <v>-0.06519076480900685</v>
+        <v>0.07190185513142328</v>
       </c>
       <c r="D13">
-        <v>0.03077891520551482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03029676223297922</v>
+      </c>
+      <c r="E13">
+        <v>-0.004414083465461621</v>
+      </c>
+      <c r="F13">
+        <v>-0.0771936961741926</v>
+      </c>
+      <c r="G13">
+        <v>0.01435116536274969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01941843291178344</v>
+        <v>0.02295156244049759</v>
       </c>
       <c r="C14">
-        <v>-0.04248988824063398</v>
+        <v>0.04290543125277806</v>
       </c>
       <c r="D14">
-        <v>0.04962266487973253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04615443801219363</v>
+      </c>
+      <c r="E14">
+        <v>0.01286791946305965</v>
+      </c>
+      <c r="F14">
+        <v>-0.08239881096535111</v>
+      </c>
+      <c r="G14">
+        <v>-0.001609745462818053</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03149712289345816</v>
+        <v>0.03376930530855909</v>
       </c>
       <c r="C15">
-        <v>-0.05651434620881793</v>
+        <v>0.05575440054814921</v>
       </c>
       <c r="D15">
-        <v>0.04555184176652829</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04128304182572694</v>
+      </c>
+      <c r="E15">
+        <v>-0.01055442668327405</v>
+      </c>
+      <c r="F15">
+        <v>-0.03379885405495033</v>
+      </c>
+      <c r="G15">
+        <v>-0.00996243177814163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05758030629980927</v>
+        <v>0.0578641086809949</v>
       </c>
       <c r="C16">
-        <v>-0.1437679646538813</v>
+        <v>0.144028213972254</v>
       </c>
       <c r="D16">
-        <v>0.07056957682949173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06118426345606801</v>
+      </c>
+      <c r="E16">
+        <v>0.03258227546537626</v>
+      </c>
+      <c r="F16">
+        <v>-0.07856510827996711</v>
+      </c>
+      <c r="G16">
+        <v>0.01286706224840378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.005282039634539964</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004669042152599626</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0008359036050677142</v>
+      </c>
+      <c r="E17">
+        <v>0.008812282890237215</v>
+      </c>
+      <c r="F17">
+        <v>0.005864630831874203</v>
+      </c>
+      <c r="G17">
+        <v>-0.01504192443167257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.0356439976478282</v>
+        <v>0.05158051504136098</v>
       </c>
       <c r="C18">
-        <v>-0.04448300496403061</v>
+        <v>0.04030818396219433</v>
       </c>
       <c r="D18">
-        <v>-0.003940517439623857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.008599887410182857</v>
+      </c>
+      <c r="E18">
+        <v>0.004696078017719264</v>
+      </c>
+      <c r="F18">
+        <v>0.04791218849698687</v>
+      </c>
+      <c r="G18">
+        <v>-0.01195086279501123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05599768379493109</v>
+        <v>0.05658717085808818</v>
       </c>
       <c r="C20">
-        <v>-0.09366647546866248</v>
+        <v>0.09278308003731917</v>
       </c>
       <c r="D20">
-        <v>0.07951082924104311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07456262255253811</v>
+      </c>
+      <c r="E20">
+        <v>0.01588850233320294</v>
+      </c>
+      <c r="F20">
+        <v>-0.07589645429173773</v>
+      </c>
+      <c r="G20">
+        <v>-0.002106432725402033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04267084170632929</v>
+        <v>0.04459962723169138</v>
       </c>
       <c r="C21">
-        <v>-0.05702113480191357</v>
+        <v>0.0549863872263873</v>
       </c>
       <c r="D21">
-        <v>0.00325281255208847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.001920664898510736</v>
+      </c>
+      <c r="E21">
+        <v>-0.004929801573897985</v>
+      </c>
+      <c r="F21">
+        <v>-0.07594715785956198</v>
+      </c>
+      <c r="G21">
+        <v>0.02550035645211787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04506803150510968</v>
+        <v>0.04372183305634431</v>
       </c>
       <c r="C22">
-        <v>-0.02077348355891852</v>
+        <v>0.02299174933293021</v>
       </c>
       <c r="D22">
-        <v>-0.009953550830571757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03023218393876974</v>
+      </c>
+      <c r="E22">
+        <v>0.133174972761954</v>
+      </c>
+      <c r="F22">
+        <v>0.03403634074738993</v>
+      </c>
+      <c r="G22">
+        <v>0.007091139238760582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04507746050403338</v>
+        <v>0.04372984931664275</v>
       </c>
       <c r="C23">
-        <v>-0.02076576236391646</v>
+        <v>0.02298507524735337</v>
       </c>
       <c r="D23">
-        <v>-0.009977830384539086</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03025947035183934</v>
+      </c>
+      <c r="E23">
+        <v>0.133211552897688</v>
+      </c>
+      <c r="F23">
+        <v>0.03403062963288334</v>
+      </c>
+      <c r="G23">
+        <v>0.00705396045503604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06703092430967549</v>
+        <v>0.06650995837818975</v>
       </c>
       <c r="C24">
-        <v>-0.1371981872889111</v>
+        <v>0.1357856558045472</v>
       </c>
       <c r="D24">
-        <v>0.06267570470157269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.05598609786255287</v>
+      </c>
+      <c r="E24">
+        <v>0.0117287509699914</v>
+      </c>
+      <c r="F24">
+        <v>-0.0753453089137683</v>
+      </c>
+      <c r="G24">
+        <v>0.01295603445098599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07244729006121148</v>
+        <v>0.07082076572265038</v>
       </c>
       <c r="C25">
-        <v>-0.1209580890798079</v>
+        <v>0.1195161668469372</v>
       </c>
       <c r="D25">
-        <v>0.04594077413442087</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03740277686889852</v>
+      </c>
+      <c r="E25">
+        <v>-0.01597433155758985</v>
+      </c>
+      <c r="F25">
+        <v>-0.09069520052419694</v>
+      </c>
+      <c r="G25">
+        <v>0.01798597450977827</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05576941972242643</v>
+        <v>0.06050177587976308</v>
       </c>
       <c r="C26">
-        <v>-0.06690099502636911</v>
+        <v>0.06770240974720078</v>
       </c>
       <c r="D26">
-        <v>0.02669961346369167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0220043349560514</v>
+      </c>
+      <c r="E26">
+        <v>0.01284504906460675</v>
+      </c>
+      <c r="F26">
+        <v>-0.08090841262874576</v>
+      </c>
+      <c r="G26">
+        <v>0.0001232935335333671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1705781557020454</v>
+        <v>0.1728104322482684</v>
       </c>
       <c r="C28">
-        <v>0.227756670748774</v>
+        <v>-0.2289394592349854</v>
       </c>
       <c r="D28">
-        <v>-0.0253256415416502</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03016155431217415</v>
+      </c>
+      <c r="E28">
+        <v>-0.05906835633572396</v>
+      </c>
+      <c r="F28">
+        <v>-0.1339041377578886</v>
+      </c>
+      <c r="G28">
+        <v>-0.002632589848905889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02412678133477864</v>
+        <v>0.02724381012838197</v>
       </c>
       <c r="C29">
-        <v>-0.04653251900518036</v>
+        <v>0.04428595551051609</v>
       </c>
       <c r="D29">
-        <v>0.01103828963004685</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.008178994863311228</v>
+      </c>
+      <c r="E29">
+        <v>0.02962685907375823</v>
+      </c>
+      <c r="F29">
+        <v>-0.07457367319419451</v>
+      </c>
+      <c r="G29">
+        <v>0.001243210405157663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03973181440763687</v>
+        <v>0.04191782077060462</v>
       </c>
       <c r="C30">
-        <v>-0.0696134046638044</v>
+        <v>0.07666708042996172</v>
       </c>
       <c r="D30">
-        <v>0.1211578370696919</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1071816830961582</v>
+      </c>
+      <c r="E30">
+        <v>-0.06635444696191499</v>
+      </c>
+      <c r="F30">
+        <v>-0.08438478661714624</v>
+      </c>
+      <c r="G30">
+        <v>-0.0185930953307537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05207125385489503</v>
+        <v>0.05147118990557721</v>
       </c>
       <c r="C31">
-        <v>-0.0318445833598295</v>
+        <v>0.03494265484702033</v>
       </c>
       <c r="D31">
-        <v>0.01493404003324331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01676432468562102</v>
+      </c>
+      <c r="E31">
+        <v>0.03524050808008943</v>
+      </c>
+      <c r="F31">
+        <v>-0.01528129011805321</v>
+      </c>
+      <c r="G31">
+        <v>0.02535146772926142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0430741728143549</v>
+        <v>0.04775959833081916</v>
       </c>
       <c r="C32">
-        <v>-0.04810753616168284</v>
+        <v>0.04499287793229884</v>
       </c>
       <c r="D32">
-        <v>0.02363445524682374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.02449712526584813</v>
+      </c>
+      <c r="E32">
+        <v>0.03104102448446834</v>
+      </c>
+      <c r="F32">
+        <v>-0.00502579228795511</v>
+      </c>
+      <c r="G32">
+        <v>-0.006210273511109254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07877428958907459</v>
+        <v>0.08241687677912693</v>
       </c>
       <c r="C33">
-        <v>-0.1075178914867908</v>
+        <v>0.1173204707266489</v>
       </c>
       <c r="D33">
-        <v>0.06766405333702306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06826787744507461</v>
+      </c>
+      <c r="E33">
+        <v>0.01916547612211699</v>
+      </c>
+      <c r="F33">
+        <v>-0.07756774480985021</v>
+      </c>
+      <c r="G33">
+        <v>0.005944929688608278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05527274667615849</v>
+        <v>0.05520488422785932</v>
       </c>
       <c r="C34">
-        <v>-0.1221875018972441</v>
+        <v>0.1240850368207796</v>
       </c>
       <c r="D34">
-        <v>0.08105378604198019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06661662294455967</v>
+      </c>
+      <c r="E34">
+        <v>-0.02078686316070719</v>
+      </c>
+      <c r="F34">
+        <v>-0.0906580909822195</v>
+      </c>
+      <c r="G34">
+        <v>-0.01705918375429796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02747253401527699</v>
+        <v>0.02929182437313592</v>
       </c>
       <c r="C35">
-        <v>-0.01593290598144828</v>
+        <v>0.01692235646064267</v>
       </c>
       <c r="D35">
-        <v>0.02698589378070339</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02158479515233641</v>
+      </c>
+      <c r="E35">
+        <v>0.02275933548607481</v>
+      </c>
+      <c r="F35">
+        <v>-0.03632859492896948</v>
+      </c>
+      <c r="G35">
+        <v>-0.02609267740826079</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02270906338568339</v>
+        <v>0.0273357059606598</v>
       </c>
       <c r="C36">
-        <v>-0.04719380541039851</v>
+        <v>0.04812172071973531</v>
       </c>
       <c r="D36">
-        <v>0.06511840725361705</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.05589635173266166</v>
+      </c>
+      <c r="E36">
+        <v>0.01512396229991917</v>
+      </c>
+      <c r="F36">
+        <v>-0.03902853818708528</v>
+      </c>
+      <c r="G36">
+        <v>-0.07940781759280748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003568802961919121</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.006444629328696751</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0005907036025494822</v>
+      </c>
+      <c r="E37">
+        <v>0.001676158218265776</v>
+      </c>
+      <c r="F37">
+        <v>-0.01024265764813092</v>
+      </c>
+      <c r="G37">
+        <v>0.006557750198401633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08445428959420274</v>
+        <v>0.07883050888719907</v>
       </c>
       <c r="C39">
-        <v>-0.1523659707207717</v>
+        <v>0.1475648458994686</v>
       </c>
       <c r="D39">
-        <v>0.04564622960942843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03775032842982139</v>
+      </c>
+      <c r="E39">
+        <v>0.01828744769515214</v>
+      </c>
+      <c r="F39">
+        <v>-0.1217820323490353</v>
+      </c>
+      <c r="G39">
+        <v>0.05254399417669877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04588544628058443</v>
+        <v>0.05040939894669501</v>
       </c>
       <c r="C40">
-        <v>-0.06114485841985615</v>
+        <v>0.06558177134708569</v>
       </c>
       <c r="D40">
-        <v>0.01652846491057383</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.005619081352577179</v>
+      </c>
+      <c r="E40">
+        <v>0.01144267034528881</v>
+      </c>
+      <c r="F40">
+        <v>-0.06145812237256071</v>
+      </c>
+      <c r="G40">
+        <v>-0.03904734175161491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02672121295949116</v>
+        <v>0.02865902784553842</v>
       </c>
       <c r="C41">
-        <v>-0.02094507910452872</v>
+        <v>0.02194224867020461</v>
       </c>
       <c r="D41">
-        <v>-0.00726219282995115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006271864358224731</v>
+      </c>
+      <c r="E41">
+        <v>0.009151742564450187</v>
+      </c>
+      <c r="F41">
+        <v>0.01210745806052354</v>
+      </c>
+      <c r="G41">
+        <v>-0.01336494236189146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04233192767392346</v>
+        <v>0.04182883427975028</v>
       </c>
       <c r="C43">
-        <v>-0.03842085004033505</v>
+        <v>0.03627451006010966</v>
       </c>
       <c r="D43">
-        <v>0.003752958290362437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.000445060071235421</v>
+      </c>
+      <c r="E43">
+        <v>0.03125774106680922</v>
+      </c>
+      <c r="F43">
+        <v>-0.02255832768494338</v>
+      </c>
+      <c r="G43">
+        <v>0.002733751350169947</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05656601187641854</v>
+        <v>0.06446651561261589</v>
       </c>
       <c r="C44">
-        <v>-0.07921989358365708</v>
+        <v>0.08562196420113018</v>
       </c>
       <c r="D44">
-        <v>0.2761945758002358</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.254425497997426</v>
+      </c>
+      <c r="E44">
+        <v>-0.04354960103007536</v>
+      </c>
+      <c r="F44">
+        <v>-0.1761647380784562</v>
+      </c>
+      <c r="G44">
+        <v>-0.1637714298159315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0003204280403364569</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.0008035223035599216</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.0002100877619526778</v>
+      </c>
+      <c r="E45">
+        <v>-0.002502548237558642</v>
+      </c>
+      <c r="F45">
+        <v>-0.0005575212950621694</v>
+      </c>
+      <c r="G45">
+        <v>0.004927482709603873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0274819744753853</v>
+        <v>0.02757683555422646</v>
       </c>
       <c r="C46">
-        <v>-0.03241480055391931</v>
+        <v>0.03114328449343498</v>
       </c>
       <c r="D46">
-        <v>0.01344161425728706</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01060850361607263</v>
+      </c>
+      <c r="E46">
+        <v>0.04355053157263271</v>
+      </c>
+      <c r="F46">
+        <v>-0.06590255803698158</v>
+      </c>
+      <c r="G46">
+        <v>0.03185423412724943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05147851996055964</v>
+        <v>0.05088943025911168</v>
       </c>
       <c r="C47">
-        <v>-0.02291710453996456</v>
+        <v>0.02588775699497787</v>
       </c>
       <c r="D47">
-        <v>-0.01905980430694506</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01185732679501635</v>
+      </c>
+      <c r="E47">
+        <v>0.05730027181220352</v>
+      </c>
+      <c r="F47">
+        <v>0.01335854606405438</v>
+      </c>
+      <c r="G47">
+        <v>0.0310161588757232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04687710205436731</v>
+        <v>0.0502331731962951</v>
       </c>
       <c r="C48">
-        <v>-0.06764859192007304</v>
+        <v>0.06650449146582704</v>
       </c>
       <c r="D48">
-        <v>0.02308929205352557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02046954819421806</v>
+      </c>
+      <c r="E48">
+        <v>-0.015368224762208</v>
+      </c>
+      <c r="F48">
+        <v>-0.05732497707075084</v>
+      </c>
+      <c r="G48">
+        <v>0.02446042454413054</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.194015029453676</v>
+        <v>0.1973447771242232</v>
       </c>
       <c r="C49">
-        <v>0.009960686863678399</v>
+        <v>-0.003172154435656827</v>
       </c>
       <c r="D49">
-        <v>0.03277766787496705</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04046834075013492</v>
+      </c>
+      <c r="E49">
+        <v>-0.0332225117289161</v>
+      </c>
+      <c r="F49">
+        <v>0.05577995051812227</v>
+      </c>
+      <c r="G49">
+        <v>0.0007406373722974202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05032194155436735</v>
+        <v>0.05188619832915604</v>
       </c>
       <c r="C50">
-        <v>-0.02917179512351824</v>
+        <v>0.03214547223875992</v>
       </c>
       <c r="D50">
-        <v>0.02301748707401024</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02639691754011189</v>
+      </c>
+      <c r="E50">
+        <v>0.02456093628071118</v>
+      </c>
+      <c r="F50">
+        <v>-0.008551827827252376</v>
+      </c>
+      <c r="G50">
+        <v>0.02487556897353798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1442946201652237</v>
+        <v>0.1377638666212259</v>
       </c>
       <c r="C52">
-        <v>-0.03455707802700557</v>
+        <v>0.03482914322695736</v>
       </c>
       <c r="D52">
-        <v>0.058605351037491</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.05808704869498742</v>
+      </c>
+      <c r="E52">
+        <v>0.02141742391745105</v>
+      </c>
+      <c r="F52">
+        <v>0.06976083471913014</v>
+      </c>
+      <c r="G52">
+        <v>0.03141325909599319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1745495700845655</v>
+        <v>0.1656385688101686</v>
       </c>
       <c r="C53">
-        <v>-0.001037890131826368</v>
+        <v>0.004353129933919883</v>
       </c>
       <c r="D53">
-        <v>0.09931683824381173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1066271254671117</v>
+      </c>
+      <c r="E53">
+        <v>0.008406234991517826</v>
+      </c>
+      <c r="F53">
+        <v>0.1119330765343086</v>
+      </c>
+      <c r="G53">
+        <v>0.06314826418504703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.009976272031860925</v>
+        <v>0.0140161147541828</v>
       </c>
       <c r="C54">
-        <v>-0.03019175607112403</v>
+        <v>0.03069259239393453</v>
       </c>
       <c r="D54">
-        <v>0.01282700686009118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01391056025403501</v>
+      </c>
+      <c r="E54">
+        <v>0.02155730239728439</v>
+      </c>
+      <c r="F54">
+        <v>-0.04854491286237354</v>
+      </c>
+      <c r="G54">
+        <v>0.00686253368720095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1208070767445716</v>
+        <v>0.1171719777939422</v>
       </c>
       <c r="C55">
-        <v>-0.005410597215138557</v>
+        <v>0.01117657713527133</v>
       </c>
       <c r="D55">
-        <v>0.06606663729639253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.06901168826158235</v>
+      </c>
+      <c r="E55">
+        <v>0.04500161833086382</v>
+      </c>
+      <c r="F55">
+        <v>0.03734994628750551</v>
+      </c>
+      <c r="G55">
+        <v>0.06861912101626218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1812442465855542</v>
+        <v>0.173320973436409</v>
       </c>
       <c r="C56">
-        <v>0.007112064502784857</v>
+        <v>-0.005839070450101271</v>
       </c>
       <c r="D56">
-        <v>0.04686170704850897</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05751831707238961</v>
+      </c>
+      <c r="E56">
+        <v>0.03330745675001746</v>
+      </c>
+      <c r="F56">
+        <v>0.1491495174790043</v>
+      </c>
+      <c r="G56">
+        <v>0.06572990470365199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04414477519442903</v>
+        <v>0.04445692645005483</v>
       </c>
       <c r="C58">
-        <v>-0.09341228538499315</v>
+        <v>0.1008543724880714</v>
       </c>
       <c r="D58">
-        <v>-0.001561335884716287</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.002869346333917633</v>
+      </c>
+      <c r="E58">
+        <v>0.04675145449541643</v>
+      </c>
+      <c r="F58">
+        <v>-0.04469678725062652</v>
+      </c>
+      <c r="G58">
+        <v>0.02462975000236972</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1870393162902607</v>
+        <v>0.1898625991887141</v>
       </c>
       <c r="C59">
-        <v>0.1785470397597694</v>
+        <v>-0.1827123531637583</v>
       </c>
       <c r="D59">
-        <v>-0.0812245697712413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.08201843488461323</v>
+      </c>
+      <c r="E59">
+        <v>0.01202884265950771</v>
+      </c>
+      <c r="F59">
+        <v>-0.05127563335529758</v>
+      </c>
+      <c r="G59">
+        <v>0.03947559018694406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2154590836611177</v>
+        <v>0.2103211250415852</v>
       </c>
       <c r="C60">
-        <v>-0.0113679730825032</v>
+        <v>0.01883473193776445</v>
       </c>
       <c r="D60">
-        <v>-0.06208306274774604</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04160028125695316</v>
+      </c>
+      <c r="E60">
+        <v>0.008042730447323565</v>
+      </c>
+      <c r="F60">
+        <v>0.2099220104576725</v>
+      </c>
+      <c r="G60">
+        <v>0.08111135615269061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06480109397720758</v>
+        <v>0.0622300696274789</v>
       </c>
       <c r="C61">
-        <v>-0.1224262067536377</v>
+        <v>0.1204173972716851</v>
       </c>
       <c r="D61">
-        <v>0.03562482547552993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.02847753436120459</v>
+      </c>
+      <c r="E61">
+        <v>0.02904618677800949</v>
+      </c>
+      <c r="F61">
+        <v>-0.08152938208409535</v>
+      </c>
+      <c r="G61">
+        <v>0.02611236281612877</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1684005173472578</v>
+        <v>0.1646723387614192</v>
       </c>
       <c r="C62">
-        <v>0.0116694702707644</v>
+        <v>-0.008221659582242712</v>
       </c>
       <c r="D62">
-        <v>0.03784368233595437</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05071266281631204</v>
+      </c>
+      <c r="E62">
+        <v>0.0341550826444932</v>
+      </c>
+      <c r="F62">
+        <v>0.1201961346008516</v>
+      </c>
+      <c r="G62">
+        <v>0.05950584477411544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03773048406720265</v>
+        <v>0.04317145644429045</v>
       </c>
       <c r="C63">
-        <v>-0.06830720341350889</v>
+        <v>0.07183215673609945</v>
       </c>
       <c r="D63">
-        <v>0.02991864185635929</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02371372364679982</v>
+      </c>
+      <c r="E63">
+        <v>0.03129708452751923</v>
+      </c>
+      <c r="F63">
+        <v>-0.0506887211376872</v>
+      </c>
+      <c r="G63">
+        <v>-0.02381018617623639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1111671355955717</v>
+        <v>0.109587087496379</v>
       </c>
       <c r="C64">
-        <v>-0.04944982789167918</v>
+        <v>0.05305566723191141</v>
       </c>
       <c r="D64">
-        <v>0.03645047684173041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03949446080916384</v>
+      </c>
+      <c r="E64">
+        <v>0.01503891981977809</v>
+      </c>
+      <c r="F64">
+        <v>0.03712367813106198</v>
+      </c>
+      <c r="G64">
+        <v>0.002652867746993456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1561731782133635</v>
+        <v>0.159805582485744</v>
       </c>
       <c r="C65">
-        <v>0.05922693330992486</v>
+        <v>-0.04921621620670107</v>
       </c>
       <c r="D65">
-        <v>0.04886328479173544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05544763822703417</v>
+      </c>
+      <c r="E65">
+        <v>-0.01014820985661335</v>
+      </c>
+      <c r="F65">
+        <v>0.01261583134423418</v>
+      </c>
+      <c r="G65">
+        <v>0.02198326457133823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1021830193832447</v>
+        <v>0.09549546934997942</v>
       </c>
       <c r="C66">
-        <v>-0.1303167797891362</v>
+        <v>0.1300877880595973</v>
       </c>
       <c r="D66">
-        <v>0.04826524216990506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03681033269507743</v>
+      </c>
+      <c r="E66">
+        <v>0.01069765179304441</v>
+      </c>
+      <c r="F66">
+        <v>-0.1027689834030961</v>
+      </c>
+      <c r="G66">
+        <v>0.005742899300418988</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05822142798169385</v>
+        <v>0.0491537599591685</v>
       </c>
       <c r="C67">
-        <v>-0.0796482993921952</v>
+        <v>0.07347589462594566</v>
       </c>
       <c r="D67">
-        <v>-0.04632168329033925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.04890297987449495</v>
+      </c>
+      <c r="E67">
+        <v>0.08429583544887974</v>
+      </c>
+      <c r="F67">
+        <v>0.03994413793193491</v>
+      </c>
+      <c r="G67">
+        <v>-0.001131406939832328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1390084116160092</v>
+        <v>0.1415974078167409</v>
       </c>
       <c r="C68">
-        <v>0.2467785864276408</v>
+        <v>-0.2498204135891829</v>
       </c>
       <c r="D68">
-        <v>-0.04862671412881554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04804590090645273</v>
+      </c>
+      <c r="E68">
+        <v>-0.1006325065567854</v>
+      </c>
+      <c r="F68">
+        <v>-0.1200880567439821</v>
+      </c>
+      <c r="G68">
+        <v>0.02660222223945703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03898212792121285</v>
+        <v>0.03846451213059521</v>
       </c>
       <c r="C69">
-        <v>-0.01229918931607227</v>
+        <v>0.01440877390984056</v>
       </c>
       <c r="D69">
-        <v>0.010361298605897</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01274148457390513</v>
+      </c>
+      <c r="E69">
+        <v>0.06160413042349029</v>
+      </c>
+      <c r="F69">
+        <v>0.04440626906174855</v>
+      </c>
+      <c r="G69">
+        <v>-0.02372836373252634</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07043219380652839</v>
+        <v>0.0715290083262769</v>
       </c>
       <c r="C70">
-        <v>-0.07993105549085047</v>
+        <v>0.07514580682534028</v>
       </c>
       <c r="D70">
-        <v>-0.5113217542464452</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.4096258369112094</v>
+      </c>
+      <c r="E70">
+        <v>0.2105086443061433</v>
+      </c>
+      <c r="F70">
+        <v>0.3892087121291483</v>
+      </c>
+      <c r="G70">
+        <v>0.4179499241345128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1616320271089339</v>
+        <v>0.1653667472800861</v>
       </c>
       <c r="C71">
-        <v>0.2538802274663135</v>
+        <v>-0.2541573382407326</v>
       </c>
       <c r="D71">
-        <v>-0.04995176865608029</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.05167917779093686</v>
+      </c>
+      <c r="E71">
+        <v>-0.1109937647180988</v>
+      </c>
+      <c r="F71">
+        <v>-0.1220377710986302</v>
+      </c>
+      <c r="G71">
+        <v>0.02782806718932342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1439997374840958</v>
+        <v>0.1491836567461307</v>
       </c>
       <c r="C72">
-        <v>-0.01097843930904858</v>
+        <v>0.008252672545108931</v>
       </c>
       <c r="D72">
-        <v>0.07360125755490539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.06509719309117749</v>
+      </c>
+      <c r="E72">
+        <v>0.041058456837932</v>
+      </c>
+      <c r="F72">
+        <v>0.02520418995241737</v>
+      </c>
+      <c r="G72">
+        <v>-0.01238347491021813</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1906089272419565</v>
+        <v>0.1987485381521012</v>
       </c>
       <c r="C73">
-        <v>-0.01839581770444027</v>
+        <v>0.02881076042620493</v>
       </c>
       <c r="D73">
-        <v>0.06331473642453232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.07123972726919982</v>
+      </c>
+      <c r="E73">
+        <v>0.05834337352774596</v>
+      </c>
+      <c r="F73">
+        <v>0.1036794629119269</v>
+      </c>
+      <c r="G73">
+        <v>-0.0149612414683883</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08654078582885594</v>
+        <v>0.08574276500249731</v>
       </c>
       <c r="C74">
-        <v>-0.003421439566086975</v>
+        <v>0.01019660131355386</v>
       </c>
       <c r="D74">
-        <v>0.07546077314098654</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0810156209973501</v>
+      </c>
+      <c r="E74">
+        <v>0.01904914541234211</v>
+      </c>
+      <c r="F74">
+        <v>0.06388178280945057</v>
+      </c>
+      <c r="G74">
+        <v>-0.00407815387303824</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1244978250836139</v>
+        <v>0.1165860732401169</v>
       </c>
       <c r="C75">
-        <v>-0.01865465396106233</v>
+        <v>0.02227787559680001</v>
       </c>
       <c r="D75">
-        <v>0.06095046177604367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.06087714629178659</v>
+      </c>
+      <c r="E75">
+        <v>0.05701848462250249</v>
+      </c>
+      <c r="F75">
+        <v>0.06165418707514358</v>
+      </c>
+      <c r="G75">
+        <v>0.04241332798351759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07243376430471356</v>
+        <v>0.08663211770362478</v>
       </c>
       <c r="C77">
-        <v>-0.1135941979545817</v>
+        <v>0.1128020744168283</v>
       </c>
       <c r="D77">
-        <v>0.06770795923969107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.07483398795115341</v>
+      </c>
+      <c r="E77">
+        <v>-0.01381659275740858</v>
+      </c>
+      <c r="F77">
+        <v>-0.08568561557884831</v>
+      </c>
+      <c r="G77">
+        <v>0.1108493151284176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.09044820012115125</v>
+        <v>0.09437112367855686</v>
       </c>
       <c r="C78">
-        <v>-0.1287292330318852</v>
+        <v>0.1279259965776091</v>
       </c>
       <c r="D78">
-        <v>0.07593875474763562</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05765554445173288</v>
+      </c>
+      <c r="E78">
+        <v>-0.005211701430542044</v>
+      </c>
+      <c r="F78">
+        <v>-0.1186050956751505</v>
+      </c>
+      <c r="G78">
+        <v>0.08544990233641736</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1675430517047021</v>
+        <v>0.1624690938910112</v>
       </c>
       <c r="C79">
-        <v>-0.01613539254620235</v>
+        <v>0.0172184008812704</v>
       </c>
       <c r="D79">
-        <v>0.03224218494375577</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03499874897152442</v>
+      </c>
+      <c r="E79">
+        <v>0.0359931212667809</v>
+      </c>
+      <c r="F79">
+        <v>0.05331679291380211</v>
+      </c>
+      <c r="G79">
+        <v>0.04330826900498289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07485521785883703</v>
+        <v>0.07315880842788167</v>
       </c>
       <c r="C80">
-        <v>-0.05785626000472471</v>
+        <v>0.05613740592682814</v>
       </c>
       <c r="D80">
-        <v>0.01083111942813573</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.006183049067579969</v>
+      </c>
+      <c r="E80">
+        <v>0.06026883269689456</v>
+      </c>
+      <c r="F80">
+        <v>-0.1080653167849923</v>
+      </c>
+      <c r="G80">
+        <v>-0.09461296938099203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1116627107609441</v>
+        <v>0.105245543726936</v>
       </c>
       <c r="C81">
-        <v>0.01661212206615449</v>
+        <v>-0.01308458878281927</v>
       </c>
       <c r="D81">
-        <v>0.02882871400439783</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03307514372713522</v>
+      </c>
+      <c r="E81">
+        <v>0.06117599219848028</v>
+      </c>
+      <c r="F81">
+        <v>0.0676802986691868</v>
+      </c>
+      <c r="G81">
+        <v>0.006395797024258714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1606544873308227</v>
+        <v>0.1571130685634469</v>
       </c>
       <c r="C82">
-        <v>0.02484117309865788</v>
+        <v>-0.01868315767245705</v>
       </c>
       <c r="D82">
-        <v>0.08975653513860435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.0973607731429816</v>
+      </c>
+      <c r="E82">
+        <v>-8.093646575133672e-05</v>
+      </c>
+      <c r="F82">
+        <v>0.1029049927789751</v>
+      </c>
+      <c r="G82">
+        <v>-0.002706160405161271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05318183395878038</v>
+        <v>0.04927271221134962</v>
       </c>
       <c r="C83">
-        <v>-0.05979823860112115</v>
+        <v>0.05571094089161248</v>
       </c>
       <c r="D83">
-        <v>-0.01060439242553084</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0124486944827112</v>
+      </c>
+      <c r="E83">
+        <v>0.01394178728315005</v>
+      </c>
+      <c r="F83">
+        <v>-0.003628562830930818</v>
+      </c>
+      <c r="G83">
+        <v>0.01643610198718208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05107148346318496</v>
+        <v>0.04830490985492493</v>
       </c>
       <c r="C84">
-        <v>-0.07277107639280736</v>
+        <v>0.07034439614539532</v>
       </c>
       <c r="D84">
-        <v>0.001707759767915137</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001869596820227896</v>
+      </c>
+      <c r="E84">
+        <v>0.01177653056511935</v>
+      </c>
+      <c r="F84">
+        <v>0.01701668207327413</v>
+      </c>
+      <c r="G84">
+        <v>0.03047321500459875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1404094419606186</v>
+        <v>0.1344332117086966</v>
       </c>
       <c r="C85">
-        <v>-0.006444009014041455</v>
+        <v>0.009651614889974035</v>
       </c>
       <c r="D85">
-        <v>0.09259191854512798</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09183784663616179</v>
+      </c>
+      <c r="E85">
+        <v>0.0166357207073969</v>
+      </c>
+      <c r="F85">
+        <v>0.04450721120157676</v>
+      </c>
+      <c r="G85">
+        <v>0.02897450024790855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08293810143452157</v>
+        <v>0.08082213430796567</v>
       </c>
       <c r="C86">
-        <v>-0.1003282956751617</v>
+        <v>0.102053744615837</v>
       </c>
       <c r="D86">
-        <v>-0.4804824320030407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.5547656436765345</v>
+      </c>
+      <c r="E86">
+        <v>0.4916858966130497</v>
+      </c>
+      <c r="F86">
+        <v>-0.4589281817793249</v>
+      </c>
+      <c r="G86">
+        <v>-0.08096987594630212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08900011631455355</v>
+        <v>0.08756168938238044</v>
       </c>
       <c r="C87">
-        <v>-0.08607851107923505</v>
+        <v>0.08709684453473385</v>
       </c>
       <c r="D87">
-        <v>0.04897820805208984</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.03698401916850391</v>
+      </c>
+      <c r="E87">
+        <v>-0.1000920753086965</v>
+      </c>
+      <c r="F87">
+        <v>-0.09874869765861582</v>
+      </c>
+      <c r="G87">
+        <v>-0.05860143789155313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06097048693967197</v>
+        <v>0.06036102762914573</v>
       </c>
       <c r="C88">
-        <v>-0.05925039490879588</v>
+        <v>0.05991984421253579</v>
       </c>
       <c r="D88">
-        <v>0.01642425231322355</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01863537826490557</v>
+      </c>
+      <c r="E88">
+        <v>0.01403328022933927</v>
+      </c>
+      <c r="F88">
+        <v>0.02693387350908181</v>
+      </c>
+      <c r="G88">
+        <v>0.01236740070104268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1479835649598464</v>
+        <v>0.1498295640197368</v>
       </c>
       <c r="C89">
-        <v>0.195008580832857</v>
+        <v>-0.206807855649631</v>
       </c>
       <c r="D89">
-        <v>-0.02440672776168448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.03403187289811145</v>
+      </c>
+      <c r="E89">
+        <v>-0.08800103073785902</v>
+      </c>
+      <c r="F89">
+        <v>-0.09387332205294655</v>
+      </c>
+      <c r="G89">
+        <v>-0.002722313538179792</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1761990253002937</v>
+        <v>0.1827095963297058</v>
       </c>
       <c r="C90">
-        <v>0.2301798155217926</v>
+        <v>-0.2383842968402887</v>
       </c>
       <c r="D90">
-        <v>-0.06686678470538693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.07245620605513761</v>
+      </c>
+      <c r="E90">
+        <v>-0.1356852574229268</v>
+      </c>
+      <c r="F90">
+        <v>-0.1401375913095875</v>
+      </c>
+      <c r="G90">
+        <v>0.009422482610036514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1270573647059988</v>
+        <v>0.1211218552436914</v>
       </c>
       <c r="C91">
-        <v>0.02230182996686389</v>
+        <v>-0.02031125418922405</v>
       </c>
       <c r="D91">
-        <v>0.02724697494709318</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02654259930230233</v>
+      </c>
+      <c r="E91">
+        <v>0.09472973506114347</v>
+      </c>
+      <c r="F91">
+        <v>0.1006543864671633</v>
+      </c>
+      <c r="G91">
+        <v>-0.007993931415690447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1702750328770065</v>
+        <v>0.1728241193232865</v>
       </c>
       <c r="C92">
-        <v>0.2657027347172298</v>
+        <v>-0.2778002356009444</v>
       </c>
       <c r="D92">
-        <v>-0.06548420540541942</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.06166422887650946</v>
+      </c>
+      <c r="E92">
+        <v>-0.08988818965559049</v>
+      </c>
+      <c r="F92">
+        <v>-0.1783736294142159</v>
+      </c>
+      <c r="G92">
+        <v>0.06407547948151672</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1766341491900572</v>
+        <v>0.1838731079905226</v>
       </c>
       <c r="C93">
-        <v>0.2233040353800439</v>
+        <v>-0.2300519170427882</v>
       </c>
       <c r="D93">
-        <v>-0.03722644623275808</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0354549202435377</v>
+      </c>
+      <c r="E93">
+        <v>-0.06668766596118605</v>
+      </c>
+      <c r="F93">
+        <v>-0.09341732329182184</v>
+      </c>
+      <c r="G93">
+        <v>0.06848795748339695</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1197893306410764</v>
+        <v>0.1138925721728775</v>
       </c>
       <c r="C94">
-        <v>-0.03322592305682846</v>
+        <v>0.03338837908651199</v>
       </c>
       <c r="D94">
-        <v>0.05567363529780738</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.05425109326112437</v>
+      </c>
+      <c r="E94">
+        <v>0.05685754388119695</v>
+      </c>
+      <c r="F94">
+        <v>0.0581294887773372</v>
+      </c>
+      <c r="G94">
+        <v>0.03716806514119972</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1206245065665178</v>
+        <v>0.1230021573983389</v>
       </c>
       <c r="C95">
-        <v>-0.1103042021400108</v>
+        <v>0.1171212205278613</v>
       </c>
       <c r="D95">
-        <v>0.01035041446749541</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01404972041242323</v>
+      </c>
+      <c r="E95">
+        <v>0.04668221462468939</v>
+      </c>
+      <c r="F95">
+        <v>-0.05639923926896101</v>
+      </c>
+      <c r="G95">
+        <v>0.006285536451865309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1193788757818822</v>
+        <v>0.1177042835992926</v>
       </c>
       <c r="C96">
-        <v>-0.1222550735750791</v>
+        <v>0.1291931586383151</v>
       </c>
       <c r="D96">
-        <v>-0.02299655084446976</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.002723336180044219</v>
+      </c>
+      <c r="E96">
+        <v>0.03964296265835172</v>
+      </c>
+      <c r="F96">
+        <v>0.1065223421321122</v>
+      </c>
+      <c r="G96">
+        <v>0.07082803948901778</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1912527568696692</v>
+        <v>0.1960528219653963</v>
       </c>
       <c r="C97">
-        <v>0.00086499701525407</v>
+        <v>-0.003627840530341929</v>
       </c>
       <c r="D97">
-        <v>-0.1112889770048652</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1510163223348735</v>
+      </c>
+      <c r="E97">
+        <v>0.1010981572855116</v>
+      </c>
+      <c r="F97">
+        <v>0.2890945927158039</v>
+      </c>
+      <c r="G97">
+        <v>-0.8275123672898222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1991059794059065</v>
+        <v>0.2044885831470809</v>
       </c>
       <c r="C98">
-        <v>-0.02650318992785234</v>
+        <v>0.03171095635359536</v>
       </c>
       <c r="D98">
-        <v>-0.1184517669478637</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1047550670847223</v>
+      </c>
+      <c r="E98">
+        <v>-0.02321238757526734</v>
+      </c>
+      <c r="F98">
+        <v>0.1011581986706159</v>
+      </c>
+      <c r="G98">
+        <v>0.008699204044363569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05440832660638269</v>
+        <v>0.05398021296935929</v>
       </c>
       <c r="C99">
-        <v>-0.05236675269610083</v>
+        <v>0.05362582102199703</v>
       </c>
       <c r="D99">
-        <v>0.006227131636664013</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.003935529378612698</v>
+      </c>
+      <c r="E99">
+        <v>0.007305004334886955</v>
+      </c>
+      <c r="F99">
+        <v>-0.03470226805668241</v>
+      </c>
+      <c r="G99">
+        <v>-0.01113281532474214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1169477929254385</v>
+        <v>0.1093175785498561</v>
       </c>
       <c r="C100">
-        <v>-0.4119870621833759</v>
+        <v>0.3758026097382184</v>
       </c>
       <c r="D100">
-        <v>-0.4401614768742008</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.4749708629080441</v>
+      </c>
+      <c r="E100">
+        <v>-0.7150074897903342</v>
+      </c>
+      <c r="F100">
+        <v>0.03071979668745764</v>
+      </c>
+      <c r="G100">
+        <v>-0.03469502704575281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02406464991390327</v>
+        <v>0.02719036765529102</v>
       </c>
       <c r="C101">
-        <v>-0.04607924810334978</v>
+        <v>0.0438020171127337</v>
       </c>
       <c r="D101">
-        <v>0.006842690397868972</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.005077345455920203</v>
+      </c>
+      <c r="E101">
+        <v>0.03083674194778597</v>
+      </c>
+      <c r="F101">
+        <v>-0.06921273796657991</v>
+      </c>
+      <c r="G101">
+        <v>0.00431491907314777</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
